--- a/medicine/Enfance/Maurice_Berty/Maurice_Berty.xlsx
+++ b/medicine/Enfance/Maurice_Berty/Maurice_Berty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Berty, pseudonyme de Jean Marie Pierre Henri de Lambertye, né le 15 juillet 1884 à Gionges et mort le 23 décembre 1946 à Paris 6e[1], est un illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Berty, pseudonyme de Jean Marie Pierre Henri de Lambertye, né le 15 juillet 1884 à Gionges et mort le 23 décembre 1946 à Paris 6e, est un illustrateur français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri de Lambertye est né au château de la Crolière, à Gionges (Marne) le 15 juillet 1884, de Paul Marie Louis Joseph, rentier, âgée de 33 ans et de Clémentine Marie Madeleine de Liron d'Airoles, sans profession. Il est le cadet de cinq enfants : Marie Louise Claire (1878-1914), Roger Marie Joseph Alexandre (1880), Bernard Marie Gustave Gabriel (1882), Guillemette Marie Cécile Henriette (1883-1968)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri de Lambertye est né au château de la Crolière, à Gionges (Marne) le 15 juillet 1884, de Paul Marie Louis Joseph, rentier, âgée de 33 ans et de Clémentine Marie Madeleine de Liron d'Airoles, sans profession. Il est le cadet de cinq enfants : Marie Louise Claire (1878-1914), Roger Marie Joseph Alexandre (1880), Bernard Marie Gustave Gabriel (1882), Guillemette Marie Cécile Henriette (1883-1968).
 Henri de Lambertye adopte le pseudonyme de Maurice Berty afin de se distinguer de son grand-père, Léonce Auguste Marie (1810-1877), connu pour ses travaux en horticulture. Il participe à la Première Guerre mondiale et est blessé à la bataille de la Marne en septembre 1914.
 À Paris, il commence à collaborer à divers magazines : Fantasy, Lectures pour tous, Bagatelles, mais l'illustration est pour lui seulement un passe-temps, étant donné sa situation de fortune. C'est seulement après la Grande Guerre et son mariage que l'illustration devient pour lui une profession à temps plein. Il commence alors à travailler pour les éditeurs de l'époque, surtout pour Nilsson mais aussi pour la Collection Nelson. Il illustre les livres de la Bibliothèque de Suzette. Il conçoit également des annonces publicitaires, entre autres pour les grands magasins Le Bon Marché, pour les Établissements Th. Bourdier, marchands de bijoux, et pour les programmes de différents théâtres.
 Il a également écrit un livre d'histoire, Louis XIV, roi de France 1638-1715 (Paris, Société d'impressions d'art, 1936), qui, en 1942, lui a valu le prix Bordin de l'Académie des inscriptions et belles-lettres.
@@ -546,7 +560,9 @@
           <t>Ouvrages illustrés par Maurice Berty</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henry de Graffigny, Les Martyrs du pôle, Paris, Librairie Gedalge, 1934, 253 p. (BNF 32421812, lire en ligne).
 Prosper Mérimée, Carmen ; Colomba, Paris, Nilsson, coll. « La bibliothèqye précieuse », 1931, 253 p. (BNF 32442413, lire en ligne).
@@ -568,8 +584,8 @@
 Henry Murger, Scènes de la vie de bohème, Paris, Maurice Glomeau, 1929, 297 p. (BNF 30997966).
 Contes du moyen âge tirés des romans de chevalerie et mis en prose par Gassies des Brulies, Paris, Delagrave, 1927, 301 p. (BNF 32148108).
 Jean de Paris : /texte renouvelé par Gassies des Brulies, Paris, Delagrave, 1929, 181 p. (BNF 41656949).
-Les Nouveaux Exploits du Mouron Rouge, de la baronne Orczy, Collection Nelson, n°323, 1931[3].
-La Capture du Mouron Rouge, de la baronne Orczy, Collection Nelson, n°359, 1933[4].</t>
+Les Nouveaux Exploits du Mouron Rouge, de la baronne Orczy, Collection Nelson, n°323, 1931.
+La Capture du Mouron Rouge, de la baronne Orczy, Collection Nelson, n°359, 1933.</t>
         </is>
       </c>
     </row>
